--- a/6_Модуль/6.3 Сводные таблицы.xlsx
+++ b/6_Модуль/6.3 Сводные таблицы.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaga\Desktop\Курсы и выступления\Курс Excel SKillbox\Файлы-примеры\M6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\6_Модуль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C235999E-2522-4708-95BB-4F8DFDA64E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEF89E-3E1F-4CD0-9E8A-C5B11F19C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Сводная" sheetId="8" r:id="rId1"/>
-    <sheet name="Данные для сводной" sheetId="2" r:id="rId2"/>
-    <sheet name="Данные не для сводной" sheetId="1" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="9" r:id="rId1"/>
+    <sheet name="Сводная" sheetId="8" r:id="rId2"/>
+    <sheet name="Данные для сводной" sheetId="2" r:id="rId3"/>
+    <sheet name="Данные не для сводной" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Данные для сводной'!$A$1:$E$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Данные для сводной'!$A$1:$E$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="209">
   <si>
     <t>Январь</t>
   </si>
@@ -718,43 +719,2447 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="831">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" indent="0"/>
     </dxf>
@@ -991,18 +3396,18 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Google Sheets Pivot Table Style" table="0" count="12" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="23"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="22"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="21"/>
-      <tableStyleElement type="firstColumnSubheading" dxfId="20"/>
-      <tableStyleElement type="secondColumnSubheading" dxfId="19"/>
-      <tableStyleElement type="thirdColumnSubheading" dxfId="18"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="830"/>
+      <tableStyleElement type="headerRow" dxfId="829"/>
+      <tableStyleElement type="totalRow" dxfId="828"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="827"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="826"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="825"/>
+      <tableStyleElement type="firstColumnSubheading" dxfId="824"/>
+      <tableStyleElement type="secondColumnSubheading" dxfId="823"/>
+      <tableStyleElement type="thirdColumnSubheading" dxfId="822"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="821"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="820"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="819"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1023,7 +3428,187 @@
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Код операции" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="179">
+        <s v="68-pjilqwf"/>
+        <s v="88-jczlfyp"/>
+        <s v="53-xuarohx"/>
+        <s v="33-jhuswcx"/>
+        <s v="38-cakarwb"/>
+        <s v="17-ghswlig"/>
+        <s v="76-uiihjmy"/>
+        <s v="32-dbnrfhu"/>
+        <s v="51-jphbmwb"/>
+        <s v="17-nrjipai"/>
+        <s v="79-vvcrjpx"/>
+        <s v="71-rkxhkkj"/>
+        <s v="27-uzkfywd"/>
+        <s v="59-atboabq"/>
+        <s v="63-vegnsif"/>
+        <s v="31-rszvver"/>
+        <s v="86-dhmrnvy"/>
+        <s v="46-tcpvkhy"/>
+        <s v="31-tbjuzlc"/>
+        <s v="24-lfkbfgd"/>
+        <s v="94-sjkprvx"/>
+        <s v="45-ctwvfbs"/>
+        <s v="21-fcahczh"/>
+        <s v="29-jimrfwp"/>
+        <s v="74-jovjgla"/>
+        <s v="56-fkkebfc"/>
+        <s v="74-vudfdmg"/>
+        <s v="86-klrvwgs"/>
+        <s v="83-rscdwge"/>
+        <s v="97-xeeramj"/>
+        <s v="19-dmksgbq"/>
+        <s v="54-xvinmrk"/>
+        <s v="69-bioxqdq"/>
+        <s v="52-nxafghq"/>
+        <s v="12-xqqzflz"/>
+        <s v="59-bhttenf"/>
+        <s v="35-xyxqpke"/>
+        <s v="24-pogmxru"/>
+        <s v="87-lsmgync"/>
+        <s v="79-tjyseck"/>
+        <s v="59-rkuvyvf"/>
+        <s v="98-ubynitn"/>
+        <s v="61-tiyconz"/>
+        <s v="42-zinxncc"/>
+        <s v="82-qylqwfv"/>
+        <s v="56-rckwiuc"/>
+        <s v="34-heefkhk"/>
+        <s v="73-jkifpuu"/>
+        <s v="42-pjuftmy"/>
+        <s v="95-unmzrxz"/>
+        <s v="61-vbyxkyd"/>
+        <s v="66-hsubtvd"/>
+        <s v="97-gpqmvtu"/>
+        <s v="78-ouutxne"/>
+        <s v="52-vtiydgk"/>
+        <s v="48-dtnidfj"/>
+        <s v="27-cejpxlw"/>
+        <s v="52-hjlbjrh"/>
+        <s v="58-tzzzpru"/>
+        <s v="16-uqhcwes"/>
+        <s v="41-yocmvtl"/>
+        <s v="23-plywrry"/>
+        <s v="18-ilfhxkb"/>
+        <s v="84-urdxdty"/>
+        <s v="18-ocubfmp"/>
+        <s v="41-uzdpyee"/>
+        <s v="37-rnxrshu"/>
+        <s v="35-nmozsdr"/>
+        <s v="79-gzodxqr"/>
+        <s v="28-pckxjty"/>
+        <s v="71-ettxdlh"/>
+        <s v="72-euylqsq"/>
+        <s v="15-nljwhdu"/>
+        <s v="32-kadbapn"/>
+        <s v="15-ecelzij"/>
+        <s v="47-dvfbqis"/>
+        <s v="11-jtdloqo"/>
+        <s v="27-rlwucjg"/>
+        <s v="98-dcjapoc"/>
+        <s v="29-pwicqjn"/>
+        <s v="16-alaotyz"/>
+        <s v="77-fxlzopb"/>
+        <s v="57-qrckogg"/>
+        <s v="47-bancrns"/>
+        <s v="97-fwdkbfo"/>
+        <s v="69-qagxgnk"/>
+        <s v="19-nxuduwj"/>
+        <s v="82-lqixxan"/>
+        <s v="42-pzobekl"/>
+        <s v="73-qhgdlsy"/>
+        <s v="87-nekwccw"/>
+        <s v="28-crblksz"/>
+        <s v="47-avtotig"/>
+        <s v="24-zkaqrdr"/>
+        <s v="99-jmzqixz"/>
+        <s v="23-ilkgehe"/>
+        <s v="63-gzlgezu"/>
+        <s v="54-ilbeviv"/>
+        <s v="52-ywtywwy"/>
+        <s v="33-ocezias"/>
+        <s v="45-mvezzcy"/>
+        <s v="23-sutszmo"/>
+        <s v="23-ccparsp"/>
+        <s v="94-awyycqm"/>
+        <s v="95-uizgdlh"/>
+        <s v="87-pzbovri"/>
+        <s v="78-uskyzgi"/>
+        <s v="16-pksipof"/>
+        <s v="23-voxvxjh"/>
+        <s v="56-gktflfe"/>
+        <s v="42-saponcn"/>
+        <s v="34-mhscqtv"/>
+        <s v="41-lnqtomb"/>
+        <s v="37-qzfbycd"/>
+        <s v="55-juwsuwv"/>
+        <s v="88-pwvrjdi"/>
+        <s v="28-ttvhwhs"/>
+        <s v="55-dsseuwu"/>
+        <s v="35-nkbppwh"/>
+        <s v="75-zlgsmfr"/>
+        <s v="11-bisbyxn"/>
+        <s v="11-yfgxiis"/>
+        <s v="51-slbbftx"/>
+        <s v="14-neyqlrk"/>
+        <s v="29-ktqydxt"/>
+        <s v="91-jsfmawk"/>
+        <s v="25-wwmpqus"/>
+        <s v="59-rawxgux"/>
+        <s v="96-rvdewch"/>
+        <s v="89-huhetzo"/>
+        <s v="59-svaqzbz"/>
+        <s v="21-xlpcnuz"/>
+        <s v="33-gkmrimz"/>
+        <s v="87-tfjuqrf"/>
+        <s v="86-xorxqrc"/>
+        <s v="78-zuisqkl"/>
+        <s v="79-qniyrpt"/>
+        <s v="59-xugxgws"/>
+        <s v="98-qdbwatv"/>
+        <s v="49-meyygzf"/>
+        <s v="56-swzivcq"/>
+        <s v="62-egolloa"/>
+        <s v="18-jdiddja"/>
+        <s v="82-gszghxx"/>
+        <s v="37-nqghmuz"/>
+        <s v="32-jlzsxch"/>
+        <s v="76-titizmv"/>
+        <s v="71-eerngyn"/>
+        <s v="95-llyetmc"/>
+        <s v="67-bdqbgyv"/>
+        <s v="35-fpcxnek"/>
+        <s v="13-honvpii"/>
+        <s v="74-nkweesr"/>
+        <s v="13-vgztvwa"/>
+        <s v="38-kjgipwf"/>
+        <s v="87-mdfdqnr"/>
+        <s v="47-yosgqhj"/>
+        <s v="98-fkbovgk"/>
+        <s v="45-dcziphe"/>
+        <s v="41-ggjukhg"/>
+        <s v="76-zofvyvf"/>
+        <s v="27-qnsoaux"/>
+        <s v="99-ndckelu"/>
+        <s v="79-kvsnpce"/>
+        <s v="82-tfcmunm"/>
+        <s v="53-zzashnz"/>
+        <s v="98-rfhjasv"/>
+        <s v="12-snmmlut"/>
+        <s v="53-iqnqugj"/>
+        <s v="74-stjzdhr"/>
+        <s v="18-kxxdlwp"/>
+        <s v="37-ekvrbyw"/>
+        <s v="48-jiamofv"/>
+        <s v="92-mfllzcf"/>
+        <s v="51-heedwuz"/>
+        <s v="79-ufrwpnu"/>
+        <s v="68-miscipo"/>
+        <s v="39-evnjrwt"/>
+        <s v="73-dryvvjs"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Регион" numFmtId="0">
       <sharedItems count="5">
@@ -3257,1253 +5842,1253 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="179">
   <r>
-    <s v="68-pjilqwf"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-  </r>
-  <r>
-    <s v="88-jczlfyp"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="53-xuarohx"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <s v="33-jhuswcx"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <s v="38-cakarwb"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
   </r>
   <r>
-    <s v="17-ghswlig"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="5"/>
   </r>
   <r>
-    <s v="76-uiihjmy"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="6"/>
   </r>
   <r>
-    <s v="32-dbnrfhu"/>
+    <x v="7"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
   </r>
   <r>
-    <s v="51-jphbmwb"/>
+    <x v="8"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="8"/>
   </r>
   <r>
-    <s v="17-nrjipai"/>
+    <x v="9"/>
     <x v="4"/>
     <x v="1"/>
     <x v="0"/>
     <x v="9"/>
   </r>
   <r>
-    <s v="79-vvcrjpx"/>
+    <x v="10"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <x v="10"/>
   </r>
   <r>
-    <s v="71-rkxhkkj"/>
+    <x v="11"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
     <x v="11"/>
   </r>
   <r>
-    <s v="27-uzkfywd"/>
+    <x v="12"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <x v="12"/>
   </r>
   <r>
-    <s v="59-atboabq"/>
+    <x v="13"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <x v="13"/>
   </r>
   <r>
-    <s v="63-vegnsif"/>
+    <x v="14"/>
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
     <x v="14"/>
   </r>
   <r>
-    <s v="31-rszvver"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="15"/>
   </r>
   <r>
-    <s v="86-dhmrnvy"/>
+    <x v="16"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="16"/>
   </r>
   <r>
-    <s v="46-tcpvkhy"/>
+    <x v="17"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
     <x v="17"/>
   </r>
   <r>
-    <s v="31-tbjuzlc"/>
+    <x v="18"/>
     <x v="3"/>
     <x v="0"/>
     <x v="1"/>
     <x v="18"/>
   </r>
   <r>
-    <s v="24-lfkbfgd"/>
+    <x v="19"/>
     <x v="4"/>
     <x v="0"/>
     <x v="1"/>
     <x v="19"/>
   </r>
   <r>
-    <s v="94-sjkprvx"/>
+    <x v="20"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <x v="20"/>
   </r>
   <r>
-    <s v="45-ctwvfbs"/>
+    <x v="21"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="21"/>
   </r>
   <r>
-    <s v="21-fcahczh"/>
+    <x v="22"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="22"/>
   </r>
   <r>
-    <s v="29-jimrfwp"/>
+    <x v="23"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="23"/>
   </r>
   <r>
-    <s v="74-jovjgla"/>
+    <x v="24"/>
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="24"/>
   </r>
   <r>
-    <s v="56-fkkebfc"/>
+    <x v="25"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <x v="25"/>
   </r>
   <r>
-    <s v="74-vudfdmg"/>
+    <x v="26"/>
     <x v="1"/>
     <x v="2"/>
     <x v="1"/>
     <x v="26"/>
   </r>
   <r>
-    <s v="86-klrvwgs"/>
+    <x v="27"/>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <x v="27"/>
   </r>
   <r>
-    <s v="83-rscdwge"/>
+    <x v="28"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="28"/>
   </r>
   <r>
-    <s v="97-xeeramj"/>
+    <x v="29"/>
     <x v="4"/>
     <x v="2"/>
     <x v="1"/>
     <x v="29"/>
   </r>
   <r>
-    <s v="19-dmksgbq"/>
+    <x v="30"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="30"/>
   </r>
   <r>
-    <s v="54-xvinmrk"/>
+    <x v="31"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="31"/>
   </r>
   <r>
-    <s v="69-bioxqdq"/>
+    <x v="32"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="32"/>
   </r>
   <r>
-    <s v="52-nxafghq"/>
+    <x v="33"/>
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
     <x v="33"/>
   </r>
   <r>
-    <s v="12-xqqzflz"/>
+    <x v="34"/>
     <x v="4"/>
     <x v="0"/>
     <x v="2"/>
     <x v="34"/>
   </r>
   <r>
-    <s v="59-bhttenf"/>
+    <x v="35"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <x v="35"/>
   </r>
   <r>
-    <s v="35-xyxqpke"/>
+    <x v="36"/>
     <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <x v="36"/>
   </r>
   <r>
-    <s v="24-pogmxru"/>
+    <x v="37"/>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="37"/>
   </r>
   <r>
-    <s v="87-lsmgync"/>
+    <x v="38"/>
     <x v="3"/>
     <x v="1"/>
     <x v="2"/>
     <x v="38"/>
   </r>
   <r>
-    <s v="79-tjyseck"/>
+    <x v="39"/>
     <x v="4"/>
     <x v="1"/>
     <x v="2"/>
     <x v="39"/>
   </r>
   <r>
-    <s v="59-rkuvyvf"/>
+    <x v="40"/>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <x v="40"/>
   </r>
   <r>
-    <s v="98-ubynitn"/>
+    <x v="41"/>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
     <x v="41"/>
   </r>
   <r>
-    <s v="61-tiyconz"/>
+    <x v="42"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="42"/>
   </r>
   <r>
-    <s v="42-zinxncc"/>
+    <x v="43"/>
     <x v="3"/>
     <x v="2"/>
     <x v="2"/>
     <x v="43"/>
   </r>
   <r>
-    <s v="82-qylqwfv"/>
+    <x v="44"/>
     <x v="4"/>
     <x v="2"/>
     <x v="2"/>
     <x v="44"/>
   </r>
   <r>
-    <s v="56-rckwiuc"/>
+    <x v="45"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="45"/>
   </r>
   <r>
-    <s v="34-heefkhk"/>
+    <x v="46"/>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
     <x v="46"/>
   </r>
   <r>
-    <s v="73-jkifpuu"/>
+    <x v="47"/>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="47"/>
   </r>
   <r>
-    <s v="42-pjuftmy"/>
+    <x v="48"/>
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="48"/>
   </r>
   <r>
-    <s v="95-unmzrxz"/>
+    <x v="49"/>
     <x v="4"/>
     <x v="0"/>
     <x v="3"/>
     <x v="49"/>
   </r>
   <r>
-    <s v="61-vbyxkyd"/>
+    <x v="50"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <x v="50"/>
   </r>
   <r>
-    <s v="66-hsubtvd"/>
+    <x v="51"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="51"/>
   </r>
   <r>
-    <s v="97-gpqmvtu"/>
+    <x v="52"/>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
     <x v="52"/>
   </r>
   <r>
-    <s v="78-ouutxne"/>
+    <x v="53"/>
     <x v="3"/>
     <x v="1"/>
     <x v="3"/>
     <x v="53"/>
   </r>
   <r>
-    <s v="52-vtiydgk"/>
+    <x v="54"/>
     <x v="4"/>
     <x v="1"/>
     <x v="3"/>
     <x v="54"/>
   </r>
   <r>
-    <s v="48-dtnidfj"/>
+    <x v="55"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <x v="55"/>
   </r>
   <r>
-    <s v="27-cejpxlw"/>
+    <x v="56"/>
     <x v="1"/>
     <x v="2"/>
     <x v="3"/>
     <x v="56"/>
   </r>
   <r>
-    <s v="52-hjlbjrh"/>
+    <x v="57"/>
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
     <x v="57"/>
   </r>
   <r>
-    <s v="58-tzzzpru"/>
+    <x v="58"/>
     <x v="3"/>
     <x v="2"/>
     <x v="3"/>
     <x v="58"/>
   </r>
   <r>
-    <s v="16-uqhcwes"/>
+    <x v="59"/>
     <x v="4"/>
     <x v="2"/>
     <x v="3"/>
     <x v="59"/>
   </r>
   <r>
-    <s v="41-yocmvtl"/>
+    <x v="60"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="60"/>
   </r>
   <r>
-    <s v="23-plywrry"/>
+    <x v="61"/>
     <x v="1"/>
     <x v="0"/>
     <x v="4"/>
     <x v="61"/>
   </r>
   <r>
-    <s v="18-ilfhxkb"/>
+    <x v="62"/>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
     <x v="62"/>
   </r>
   <r>
-    <s v="84-urdxdty"/>
+    <x v="63"/>
     <x v="3"/>
     <x v="0"/>
     <x v="4"/>
     <x v="63"/>
   </r>
   <r>
-    <s v="18-ocubfmp"/>
+    <x v="64"/>
     <x v="4"/>
     <x v="0"/>
     <x v="4"/>
     <x v="64"/>
   </r>
   <r>
-    <s v="41-uzdpyee"/>
+    <x v="65"/>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
     <x v="65"/>
   </r>
   <r>
-    <s v="37-rnxrshu"/>
+    <x v="66"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="66"/>
   </r>
   <r>
-    <s v="35-nmozsdr"/>
+    <x v="67"/>
     <x v="2"/>
     <x v="1"/>
     <x v="4"/>
     <x v="67"/>
   </r>
   <r>
-    <s v="79-gzodxqr"/>
+    <x v="68"/>
     <x v="3"/>
     <x v="1"/>
     <x v="4"/>
     <x v="68"/>
   </r>
   <r>
-    <s v="28-pckxjty"/>
+    <x v="69"/>
     <x v="4"/>
     <x v="1"/>
     <x v="4"/>
     <x v="69"/>
   </r>
   <r>
-    <s v="71-ettxdlh"/>
+    <x v="70"/>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
     <x v="70"/>
   </r>
   <r>
-    <s v="72-euylqsq"/>
+    <x v="71"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
     <x v="71"/>
   </r>
   <r>
-    <s v="15-nljwhdu"/>
+    <x v="72"/>
     <x v="2"/>
     <x v="2"/>
     <x v="4"/>
     <x v="72"/>
   </r>
   <r>
-    <s v="32-kadbapn"/>
+    <x v="73"/>
     <x v="3"/>
     <x v="2"/>
     <x v="4"/>
     <x v="73"/>
   </r>
   <r>
-    <s v="15-ecelzij"/>
+    <x v="74"/>
     <x v="4"/>
     <x v="2"/>
     <x v="4"/>
     <x v="74"/>
   </r>
   <r>
-    <s v="47-dvfbqis"/>
+    <x v="75"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <x v="75"/>
   </r>
   <r>
-    <s v="11-jtdloqo"/>
+    <x v="76"/>
     <x v="1"/>
     <x v="0"/>
     <x v="5"/>
     <x v="76"/>
   </r>
   <r>
-    <s v="27-rlwucjg"/>
+    <x v="77"/>
     <x v="2"/>
     <x v="0"/>
     <x v="5"/>
     <x v="77"/>
   </r>
   <r>
-    <s v="98-dcjapoc"/>
+    <x v="78"/>
     <x v="3"/>
     <x v="0"/>
     <x v="5"/>
     <x v="78"/>
   </r>
   <r>
-    <s v="29-pwicqjn"/>
+    <x v="79"/>
     <x v="4"/>
     <x v="0"/>
     <x v="5"/>
     <x v="79"/>
   </r>
   <r>
-    <s v="16-alaotyz"/>
+    <x v="80"/>
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
     <x v="80"/>
   </r>
   <r>
-    <s v="77-fxlzopb"/>
+    <x v="81"/>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
     <x v="81"/>
   </r>
   <r>
-    <s v="57-qrckogg"/>
+    <x v="82"/>
     <x v="2"/>
     <x v="1"/>
     <x v="5"/>
     <x v="82"/>
   </r>
   <r>
-    <s v="47-bancrns"/>
+    <x v="83"/>
     <x v="3"/>
     <x v="1"/>
     <x v="5"/>
     <x v="83"/>
   </r>
   <r>
-    <s v="97-fwdkbfo"/>
+    <x v="84"/>
     <x v="4"/>
     <x v="1"/>
     <x v="5"/>
     <x v="84"/>
   </r>
   <r>
-    <s v="69-qagxgnk"/>
+    <x v="85"/>
     <x v="0"/>
     <x v="2"/>
     <x v="5"/>
     <x v="85"/>
   </r>
   <r>
-    <s v="19-nxuduwj"/>
+    <x v="86"/>
     <x v="1"/>
     <x v="2"/>
     <x v="5"/>
     <x v="86"/>
   </r>
   <r>
-    <s v="82-lqixxan"/>
+    <x v="87"/>
     <x v="2"/>
     <x v="2"/>
     <x v="5"/>
     <x v="87"/>
   </r>
   <r>
-    <s v="42-pzobekl"/>
+    <x v="88"/>
     <x v="3"/>
     <x v="2"/>
     <x v="5"/>
     <x v="88"/>
   </r>
   <r>
-    <s v="73-qhgdlsy"/>
+    <x v="89"/>
     <x v="4"/>
     <x v="2"/>
     <x v="5"/>
     <x v="89"/>
   </r>
   <r>
-    <s v="87-nekwccw"/>
+    <x v="90"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="90"/>
   </r>
   <r>
-    <s v="28-crblksz"/>
+    <x v="91"/>
     <x v="1"/>
     <x v="0"/>
     <x v="6"/>
     <x v="91"/>
   </r>
   <r>
-    <s v="47-avtotig"/>
+    <x v="92"/>
     <x v="2"/>
     <x v="0"/>
     <x v="6"/>
     <x v="92"/>
   </r>
   <r>
-    <s v="24-zkaqrdr"/>
+    <x v="93"/>
     <x v="3"/>
     <x v="0"/>
     <x v="6"/>
     <x v="93"/>
   </r>
   <r>
-    <s v="99-jmzqixz"/>
+    <x v="94"/>
     <x v="4"/>
     <x v="0"/>
     <x v="6"/>
     <x v="94"/>
   </r>
   <r>
-    <s v="23-ilkgehe"/>
+    <x v="95"/>
     <x v="0"/>
     <x v="1"/>
     <x v="6"/>
     <x v="95"/>
   </r>
   <r>
-    <s v="63-gzlgezu"/>
+    <x v="96"/>
     <x v="1"/>
     <x v="1"/>
     <x v="6"/>
     <x v="96"/>
   </r>
   <r>
-    <s v="54-ilbeviv"/>
+    <x v="97"/>
     <x v="2"/>
     <x v="1"/>
     <x v="6"/>
     <x v="97"/>
   </r>
   <r>
-    <s v="52-ywtywwy"/>
+    <x v="98"/>
     <x v="3"/>
     <x v="1"/>
     <x v="6"/>
     <x v="98"/>
   </r>
   <r>
-    <s v="33-ocezias"/>
+    <x v="99"/>
     <x v="4"/>
     <x v="1"/>
     <x v="6"/>
     <x v="99"/>
   </r>
   <r>
-    <s v="45-mvezzcy"/>
+    <x v="100"/>
     <x v="0"/>
     <x v="2"/>
     <x v="6"/>
     <x v="100"/>
   </r>
   <r>
-    <s v="23-sutszmo"/>
+    <x v="101"/>
     <x v="1"/>
     <x v="2"/>
     <x v="6"/>
     <x v="101"/>
   </r>
   <r>
-    <s v="23-ccparsp"/>
+    <x v="102"/>
     <x v="2"/>
     <x v="2"/>
     <x v="6"/>
     <x v="102"/>
   </r>
   <r>
-    <s v="94-awyycqm"/>
+    <x v="103"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
     <x v="103"/>
   </r>
   <r>
-    <s v="95-uizgdlh"/>
+    <x v="104"/>
     <x v="4"/>
     <x v="2"/>
     <x v="6"/>
     <x v="104"/>
   </r>
   <r>
-    <s v="87-pzbovri"/>
+    <x v="105"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
     <x v="105"/>
   </r>
   <r>
-    <s v="78-uskyzgi"/>
+    <x v="106"/>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
     <x v="106"/>
   </r>
   <r>
-    <s v="16-pksipof"/>
+    <x v="107"/>
     <x v="2"/>
     <x v="0"/>
     <x v="7"/>
     <x v="107"/>
   </r>
   <r>
-    <s v="23-voxvxjh"/>
+    <x v="108"/>
     <x v="3"/>
     <x v="0"/>
     <x v="7"/>
     <x v="108"/>
   </r>
   <r>
-    <s v="56-gktflfe"/>
+    <x v="109"/>
     <x v="4"/>
     <x v="0"/>
     <x v="7"/>
     <x v="109"/>
   </r>
   <r>
-    <s v="42-saponcn"/>
+    <x v="110"/>
     <x v="0"/>
     <x v="1"/>
     <x v="7"/>
     <x v="110"/>
   </r>
   <r>
-    <s v="34-mhscqtv"/>
+    <x v="111"/>
     <x v="1"/>
     <x v="1"/>
     <x v="7"/>
     <x v="111"/>
   </r>
   <r>
-    <s v="41-lnqtomb"/>
+    <x v="112"/>
     <x v="2"/>
     <x v="1"/>
     <x v="7"/>
     <x v="112"/>
   </r>
   <r>
-    <s v="37-qzfbycd"/>
+    <x v="113"/>
     <x v="3"/>
     <x v="1"/>
     <x v="7"/>
     <x v="113"/>
   </r>
   <r>
-    <s v="55-juwsuwv"/>
+    <x v="114"/>
     <x v="4"/>
     <x v="1"/>
     <x v="7"/>
     <x v="114"/>
   </r>
   <r>
-    <s v="88-pwvrjdi"/>
+    <x v="115"/>
     <x v="0"/>
     <x v="2"/>
     <x v="7"/>
     <x v="115"/>
   </r>
   <r>
-    <s v="28-ttvhwhs"/>
+    <x v="116"/>
     <x v="1"/>
     <x v="2"/>
     <x v="7"/>
     <x v="116"/>
   </r>
   <r>
-    <s v="55-dsseuwu"/>
+    <x v="117"/>
     <x v="2"/>
     <x v="2"/>
     <x v="7"/>
     <x v="117"/>
   </r>
   <r>
-    <s v="35-nkbppwh"/>
+    <x v="118"/>
     <x v="3"/>
     <x v="2"/>
     <x v="7"/>
     <x v="118"/>
   </r>
   <r>
-    <s v="75-zlgsmfr"/>
+    <x v="119"/>
     <x v="4"/>
     <x v="2"/>
     <x v="7"/>
     <x v="119"/>
   </r>
   <r>
-    <s v="11-bisbyxn"/>
+    <x v="120"/>
     <x v="0"/>
     <x v="0"/>
     <x v="8"/>
     <x v="120"/>
   </r>
   <r>
-    <s v="11-yfgxiis"/>
+    <x v="121"/>
     <x v="1"/>
     <x v="0"/>
     <x v="8"/>
     <x v="121"/>
   </r>
   <r>
-    <s v="51-slbbftx"/>
+    <x v="122"/>
     <x v="2"/>
     <x v="0"/>
     <x v="8"/>
     <x v="122"/>
   </r>
   <r>
-    <s v="14-neyqlrk"/>
+    <x v="123"/>
     <x v="3"/>
     <x v="0"/>
     <x v="8"/>
     <x v="123"/>
   </r>
   <r>
-    <s v="29-ktqydxt"/>
+    <x v="124"/>
     <x v="4"/>
     <x v="0"/>
     <x v="8"/>
     <x v="124"/>
   </r>
   <r>
-    <s v="91-jsfmawk"/>
+    <x v="125"/>
     <x v="0"/>
     <x v="1"/>
     <x v="8"/>
     <x v="125"/>
   </r>
   <r>
-    <s v="25-wwmpqus"/>
+    <x v="126"/>
     <x v="1"/>
     <x v="1"/>
     <x v="8"/>
     <x v="126"/>
   </r>
   <r>
-    <s v="59-rawxgux"/>
+    <x v="127"/>
     <x v="2"/>
     <x v="1"/>
     <x v="8"/>
     <x v="127"/>
   </r>
   <r>
-    <s v="96-rvdewch"/>
+    <x v="128"/>
     <x v="3"/>
     <x v="1"/>
     <x v="8"/>
     <x v="128"/>
   </r>
   <r>
-    <s v="89-huhetzo"/>
+    <x v="129"/>
     <x v="4"/>
     <x v="1"/>
     <x v="8"/>
     <x v="129"/>
   </r>
   <r>
-    <s v="59-svaqzbz"/>
+    <x v="130"/>
     <x v="0"/>
     <x v="2"/>
     <x v="8"/>
     <x v="130"/>
   </r>
   <r>
-    <s v="21-xlpcnuz"/>
+    <x v="131"/>
     <x v="1"/>
     <x v="2"/>
     <x v="8"/>
     <x v="131"/>
   </r>
   <r>
-    <s v="33-gkmrimz"/>
+    <x v="132"/>
     <x v="2"/>
     <x v="2"/>
     <x v="8"/>
     <x v="132"/>
   </r>
   <r>
-    <s v="87-tfjuqrf"/>
+    <x v="133"/>
     <x v="3"/>
     <x v="2"/>
     <x v="8"/>
     <x v="133"/>
   </r>
   <r>
-    <s v="86-xorxqrc"/>
+    <x v="134"/>
     <x v="4"/>
     <x v="2"/>
     <x v="8"/>
     <x v="134"/>
   </r>
   <r>
-    <s v="78-zuisqkl"/>
+    <x v="135"/>
     <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="135"/>
   </r>
   <r>
-    <s v="79-qniyrpt"/>
+    <x v="136"/>
     <x v="1"/>
     <x v="0"/>
     <x v="9"/>
     <x v="136"/>
   </r>
   <r>
-    <s v="59-xugxgws"/>
+    <x v="137"/>
     <x v="2"/>
     <x v="0"/>
     <x v="9"/>
     <x v="137"/>
   </r>
   <r>
-    <s v="98-qdbwatv"/>
+    <x v="138"/>
     <x v="3"/>
     <x v="0"/>
     <x v="9"/>
     <x v="138"/>
   </r>
   <r>
-    <s v="49-meyygzf"/>
+    <x v="139"/>
     <x v="4"/>
     <x v="0"/>
     <x v="9"/>
     <x v="139"/>
   </r>
   <r>
-    <s v="56-swzivcq"/>
+    <x v="140"/>
     <x v="0"/>
     <x v="1"/>
     <x v="9"/>
     <x v="140"/>
   </r>
   <r>
-    <s v="62-egolloa"/>
+    <x v="141"/>
     <x v="1"/>
     <x v="1"/>
     <x v="9"/>
     <x v="141"/>
   </r>
   <r>
-    <s v="18-jdiddja"/>
+    <x v="142"/>
     <x v="2"/>
     <x v="1"/>
     <x v="9"/>
     <x v="142"/>
   </r>
   <r>
-    <s v="82-gszghxx"/>
+    <x v="143"/>
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
     <x v="143"/>
   </r>
   <r>
-    <s v="37-nqghmuz"/>
+    <x v="144"/>
     <x v="4"/>
     <x v="1"/>
     <x v="9"/>
     <x v="144"/>
   </r>
   <r>
-    <s v="32-jlzsxch"/>
+    <x v="145"/>
     <x v="0"/>
     <x v="2"/>
     <x v="9"/>
     <x v="145"/>
   </r>
   <r>
-    <s v="76-titizmv"/>
+    <x v="146"/>
     <x v="1"/>
     <x v="2"/>
     <x v="9"/>
     <x v="146"/>
   </r>
   <r>
-    <s v="71-eerngyn"/>
+    <x v="147"/>
     <x v="2"/>
     <x v="2"/>
     <x v="9"/>
     <x v="147"/>
   </r>
   <r>
-    <s v="95-llyetmc"/>
+    <x v="148"/>
     <x v="3"/>
     <x v="2"/>
     <x v="9"/>
     <x v="148"/>
   </r>
   <r>
-    <s v="67-bdqbgyv"/>
+    <x v="149"/>
     <x v="4"/>
     <x v="2"/>
     <x v="9"/>
     <x v="149"/>
   </r>
   <r>
-    <s v="35-fpcxnek"/>
+    <x v="150"/>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
     <x v="150"/>
   </r>
   <r>
-    <s v="13-honvpii"/>
+    <x v="151"/>
     <x v="1"/>
     <x v="0"/>
     <x v="10"/>
     <x v="151"/>
   </r>
   <r>
-    <s v="74-nkweesr"/>
+    <x v="152"/>
     <x v="2"/>
     <x v="0"/>
     <x v="10"/>
     <x v="152"/>
   </r>
   <r>
-    <s v="13-vgztvwa"/>
+    <x v="153"/>
     <x v="3"/>
     <x v="0"/>
     <x v="10"/>
     <x v="153"/>
   </r>
   <r>
-    <s v="38-kjgipwf"/>
+    <x v="154"/>
     <x v="4"/>
     <x v="0"/>
     <x v="10"/>
     <x v="154"/>
   </r>
   <r>
-    <s v="87-mdfdqnr"/>
+    <x v="155"/>
     <x v="0"/>
     <x v="1"/>
     <x v="10"/>
     <x v="155"/>
   </r>
   <r>
-    <s v="47-yosgqhj"/>
+    <x v="156"/>
     <x v="1"/>
     <x v="1"/>
     <x v="10"/>
     <x v="156"/>
   </r>
   <r>
-    <s v="98-fkbovgk"/>
+    <x v="157"/>
     <x v="2"/>
     <x v="1"/>
     <x v="10"/>
     <x v="157"/>
   </r>
   <r>
-    <s v="45-dcziphe"/>
+    <x v="158"/>
     <x v="3"/>
     <x v="1"/>
     <x v="10"/>
     <x v="158"/>
   </r>
   <r>
-    <s v="41-ggjukhg"/>
+    <x v="159"/>
     <x v="4"/>
     <x v="1"/>
     <x v="10"/>
     <x v="159"/>
   </r>
   <r>
-    <s v="76-zofvyvf"/>
+    <x v="160"/>
     <x v="0"/>
     <x v="2"/>
     <x v="10"/>
     <x v="160"/>
   </r>
   <r>
-    <s v="27-qnsoaux"/>
+    <x v="161"/>
     <x v="1"/>
     <x v="2"/>
     <x v="10"/>
     <x v="161"/>
   </r>
   <r>
-    <s v="99-ndckelu"/>
+    <x v="162"/>
     <x v="2"/>
     <x v="2"/>
     <x v="10"/>
     <x v="162"/>
   </r>
   <r>
-    <s v="79-kvsnpce"/>
+    <x v="163"/>
     <x v="3"/>
     <x v="2"/>
     <x v="10"/>
     <x v="163"/>
   </r>
   <r>
-    <s v="82-tfcmunm"/>
+    <x v="164"/>
     <x v="4"/>
     <x v="2"/>
     <x v="10"/>
     <x v="164"/>
   </r>
   <r>
-    <s v="53-zzashnz"/>
+    <x v="165"/>
     <x v="0"/>
     <x v="0"/>
     <x v="11"/>
     <x v="165"/>
   </r>
   <r>
-    <s v="98-rfhjasv"/>
+    <x v="166"/>
     <x v="1"/>
     <x v="0"/>
     <x v="11"/>
     <x v="166"/>
   </r>
   <r>
-    <s v="12-snmmlut"/>
+    <x v="167"/>
     <x v="2"/>
     <x v="0"/>
     <x v="11"/>
     <x v="167"/>
   </r>
   <r>
-    <s v="53-iqnqugj"/>
+    <x v="168"/>
     <x v="3"/>
     <x v="0"/>
     <x v="11"/>
     <x v="168"/>
   </r>
   <r>
-    <s v="74-stjzdhr"/>
+    <x v="169"/>
     <x v="4"/>
     <x v="0"/>
     <x v="11"/>
     <x v="169"/>
   </r>
   <r>
-    <s v="18-kxxdlwp"/>
+    <x v="170"/>
     <x v="0"/>
     <x v="1"/>
     <x v="11"/>
     <x v="170"/>
   </r>
   <r>
-    <s v="37-ekvrbyw"/>
+    <x v="171"/>
     <x v="1"/>
     <x v="1"/>
     <x v="11"/>
     <x v="171"/>
   </r>
   <r>
-    <s v="48-jiamofv"/>
+    <x v="172"/>
     <x v="2"/>
     <x v="1"/>
     <x v="11"/>
     <x v="172"/>
   </r>
   <r>
-    <s v="92-mfllzcf"/>
+    <x v="173"/>
     <x v="3"/>
     <x v="1"/>
     <x v="11"/>
     <x v="173"/>
   </r>
   <r>
-    <s v="51-heedwuz"/>
+    <x v="174"/>
     <x v="4"/>
     <x v="1"/>
     <x v="11"/>
     <x v="174"/>
   </r>
   <r>
-    <s v="79-ufrwpnu"/>
+    <x v="175"/>
     <x v="0"/>
     <x v="2"/>
     <x v="11"/>
     <x v="175"/>
   </r>
   <r>
-    <s v="68-miscipo"/>
+    <x v="176"/>
     <x v="1"/>
     <x v="2"/>
     <x v="11"/>
     <x v="176"/>
   </r>
   <r>
-    <s v="39-evnjrwt"/>
+    <x v="177"/>
     <x v="2"/>
     <x v="2"/>
     <x v="11"/>
     <x v="177"/>
   </r>
   <r>
-    <s v="73-dryvvjs"/>
+    <x v="178"/>
     <x v="3"/>
     <x v="2"/>
     <x v="11"/>
@@ -4513,26 +7098,209 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6676E8DA-7FA2-4BA1-9211-E89FF988D8F3}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:N25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6676E8DA-7FA2-4BA1-9211-E89FF988D8F3}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="180">
+        <item x="120"/>
+        <item x="76"/>
+        <item x="121"/>
+        <item x="167"/>
+        <item x="34"/>
+        <item x="151"/>
+        <item x="153"/>
+        <item x="123"/>
+        <item x="74"/>
+        <item x="72"/>
+        <item x="80"/>
+        <item x="107"/>
+        <item x="59"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="62"/>
+        <item x="142"/>
+        <item x="170"/>
+        <item x="64"/>
+        <item x="30"/>
+        <item x="86"/>
+        <item x="22"/>
+        <item x="131"/>
+        <item x="102"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="101"/>
+        <item x="108"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="93"/>
+        <item x="126"/>
+        <item x="56"/>
+        <item x="161"/>
+        <item x="77"/>
+        <item x="12"/>
+        <item x="91"/>
+        <item x="69"/>
+        <item x="116"/>
+        <item x="23"/>
+        <item x="124"/>
+        <item x="79"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="7"/>
+        <item x="145"/>
+        <item x="73"/>
+        <item x="132"/>
+        <item x="3"/>
+        <item x="99"/>
+        <item x="46"/>
+        <item x="111"/>
+        <item x="150"/>
+        <item x="118"/>
+        <item x="67"/>
+        <item x="36"/>
+        <item x="171"/>
+        <item x="144"/>
+        <item x="113"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="154"/>
+        <item x="177"/>
+        <item x="159"/>
+        <item x="112"/>
+        <item x="65"/>
+        <item x="60"/>
+        <item x="48"/>
+        <item x="88"/>
+        <item x="110"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="158"/>
+        <item x="100"/>
+        <item x="17"/>
+        <item x="92"/>
+        <item x="83"/>
+        <item x="75"/>
+        <item x="156"/>
+        <item x="55"/>
+        <item x="172"/>
+        <item x="139"/>
+        <item x="174"/>
+        <item x="8"/>
+        <item x="122"/>
+        <item x="57"/>
+        <item x="33"/>
+        <item x="54"/>
+        <item x="98"/>
+        <item x="168"/>
+        <item x="2"/>
+        <item x="165"/>
+        <item x="97"/>
+        <item x="31"/>
+        <item x="117"/>
+        <item x="114"/>
+        <item x="25"/>
+        <item x="109"/>
+        <item x="45"/>
+        <item x="140"/>
+        <item x="82"/>
+        <item x="58"/>
+        <item x="13"/>
+        <item x="35"/>
+        <item x="127"/>
+        <item x="40"/>
+        <item x="130"/>
+        <item x="137"/>
+        <item x="42"/>
+        <item x="50"/>
+        <item x="141"/>
+        <item x="96"/>
+        <item x="14"/>
+        <item x="51"/>
+        <item x="149"/>
+        <item x="176"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="85"/>
+        <item x="147"/>
+        <item x="70"/>
+        <item x="11"/>
+        <item x="71"/>
+        <item x="178"/>
+        <item x="47"/>
+        <item x="89"/>
+        <item x="24"/>
+        <item x="152"/>
+        <item x="169"/>
+        <item x="26"/>
+        <item x="119"/>
+        <item x="146"/>
+        <item x="6"/>
+        <item x="160"/>
+        <item x="81"/>
+        <item x="53"/>
+        <item x="106"/>
+        <item x="135"/>
+        <item x="68"/>
+        <item x="163"/>
+        <item x="136"/>
+        <item x="39"/>
+        <item x="175"/>
+        <item x="10"/>
+        <item x="143"/>
+        <item x="87"/>
+        <item x="44"/>
+        <item x="164"/>
+        <item x="28"/>
+        <item x="63"/>
+        <item x="16"/>
+        <item x="27"/>
+        <item x="134"/>
+        <item x="38"/>
+        <item x="155"/>
+        <item x="90"/>
+        <item x="105"/>
+        <item x="133"/>
+        <item x="1"/>
+        <item x="115"/>
+        <item x="129"/>
+        <item x="125"/>
+        <item x="173"/>
+        <item x="103"/>
+        <item x="20"/>
+        <item x="148"/>
+        <item x="104"/>
+        <item x="49"/>
+        <item x="128"/>
+        <item x="84"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="157"/>
+        <item x="138"/>
+        <item x="166"/>
+        <item x="41"/>
+        <item x="94"/>
+        <item x="162"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="2"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
@@ -4558,7 +7326,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -4574,50 +7342,14 @@
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
     <i>
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -4626,7 +7358,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="13">
+  <colItems count="12">
     <i>
       <x/>
     </i>
@@ -4663,18 +7395,15 @@
     <i>
       <x v="11"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Сумма по полю Продажи" fld="4" baseField="1" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="15">
-    <format dxfId="14">
+  <formats count="26">
+    <format dxfId="818">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="817">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4683,32 +7412,32 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="816">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="815">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="814">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="813">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="812">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="811">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="810">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="809">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4718,7 +7447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="808">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4728,7 +7457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="807">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4738,7 +7467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="806">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4748,7 +7477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="805">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4758,12 +7487,60 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="804">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="713">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="712">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="711">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="710">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="709">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="708">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="707">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="706">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="705">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="704">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="703">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4776,6 +7553,20 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A6A72D7-40C1-4F17-AAE6-8716834F8ED0}" name="Таблица1" displayName="Таблица1" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{8A6A72D7-40C1-4F17-AAE6-8716834F8ED0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2FF65754-18A8-47EF-BCAC-2E8DBA17A895}" name="Код операции"/>
+    <tableColumn id="2" xr3:uid="{DB4B3582-7A5F-4CF5-A924-D409BA8EFF2C}" name="Регион"/>
+    <tableColumn id="3" xr3:uid="{FDBCA1D6-916D-42EF-BED9-9E39A370E96B}" name="Категория"/>
+    <tableColumn id="4" xr3:uid="{58EB1A77-DCD5-49F7-8B7B-66A8FA675A49}" name="Месяц"/>
+    <tableColumn id="5" xr3:uid="{C4105C48-C046-415E-943C-659EDD394133}" name="Продажи" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5074,1014 +7865,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9DC3E0-C38C-4BE4-9DC4-5D78EEDFA203}">
-  <dimension ref="A3:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FC388B-7F4D-4197-A233-CD5A71C111D8}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>18043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9DC3E0-C38C-4BE4-9DC4-5D78EEDFA203}">
+  <dimension ref="A3:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12">
+        <v>88493</v>
+      </c>
+      <c r="C5" s="12">
+        <v>108651</v>
+      </c>
+      <c r="D5" s="12">
+        <v>79580</v>
+      </c>
+      <c r="E5" s="12">
+        <v>68233</v>
+      </c>
+      <c r="F5" s="12">
+        <v>59800</v>
+      </c>
+      <c r="G5" s="12">
+        <v>105816</v>
+      </c>
+      <c r="H5" s="12">
+        <v>101138</v>
+      </c>
+      <c r="I5" s="12">
+        <v>108391</v>
+      </c>
+      <c r="J5" s="12">
+        <v>54315</v>
+      </c>
+      <c r="K5" s="12">
+        <v>117289</v>
+      </c>
+      <c r="L5" s="12">
+        <v>91558</v>
+      </c>
+      <c r="M5" s="12">
+        <v>122465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12">
+        <v>40206</v>
+      </c>
+      <c r="C6" s="12">
+        <v>39501</v>
+      </c>
+      <c r="D6" s="12">
+        <v>18500</v>
+      </c>
+      <c r="E6" s="12">
+        <v>27038</v>
+      </c>
+      <c r="F6" s="12">
+        <v>15748</v>
+      </c>
+      <c r="G6" s="12">
+        <v>14867</v>
+      </c>
+      <c r="H6" s="12">
+        <v>36485</v>
+      </c>
+      <c r="I6" s="12">
+        <v>17121</v>
+      </c>
+      <c r="J6" s="12">
+        <v>23144</v>
+      </c>
+      <c r="K6" s="12">
+        <v>33990</v>
+      </c>
+      <c r="L6" s="12">
+        <v>36598</v>
+      </c>
+      <c r="M6" s="12">
+        <v>49727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12">
+        <v>30244</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45392</v>
+      </c>
+      <c r="D7" s="12">
+        <v>44222</v>
+      </c>
+      <c r="E7" s="12">
+        <v>14297</v>
+      </c>
+      <c r="F7" s="12">
+        <v>32033</v>
+      </c>
+      <c r="G7" s="12">
+        <v>46790</v>
+      </c>
+      <c r="H7" s="12">
+        <v>24771</v>
+      </c>
+      <c r="I7" s="12">
+        <v>47805</v>
+      </c>
+      <c r="J7" s="12">
+        <v>14769</v>
+      </c>
+      <c r="K7" s="12">
+        <v>43918</v>
+      </c>
+      <c r="L7" s="12">
+        <v>16876</v>
+      </c>
+      <c r="M7" s="12">
+        <v>26254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12">
+        <v>18043</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23758</v>
+      </c>
+      <c r="D8" s="12">
+        <v>16858</v>
+      </c>
+      <c r="E8" s="12">
+        <v>26898</v>
+      </c>
+      <c r="F8" s="12">
+        <v>12019</v>
+      </c>
+      <c r="G8" s="12">
+        <v>44159</v>
+      </c>
+      <c r="H8" s="12">
+        <v>39882</v>
+      </c>
+      <c r="I8" s="12">
+        <v>43465</v>
+      </c>
+      <c r="J8" s="12">
+        <v>16402</v>
+      </c>
+      <c r="K8" s="12">
+        <v>39381</v>
+      </c>
+      <c r="L8" s="12">
+        <v>38084</v>
+      </c>
+      <c r="M8" s="12">
+        <v>46484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12">
+        <v>116296</v>
+      </c>
+      <c r="C9" s="12">
+        <v>102573</v>
+      </c>
+      <c r="D9" s="12">
+        <v>85703</v>
+      </c>
+      <c r="E9" s="12">
+        <v>107285</v>
+      </c>
+      <c r="F9" s="12">
+        <v>84165</v>
+      </c>
+      <c r="G9" s="12">
+        <v>44740</v>
+      </c>
+      <c r="H9" s="12">
+        <v>102054</v>
+      </c>
+      <c r="I9" s="12">
+        <v>80515</v>
+      </c>
+      <c r="J9" s="12">
+        <v>106435</v>
+      </c>
+      <c r="K9" s="12">
+        <v>93067</v>
+      </c>
+      <c r="L9" s="12">
+        <v>93187</v>
+      </c>
+      <c r="M9" s="12">
+        <v>54120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="12">
+        <v>74338</v>
+      </c>
+      <c r="C10" s="12">
+        <v>107529</v>
+      </c>
+      <c r="D10" s="12">
+        <v>76588</v>
+      </c>
+      <c r="E10" s="12">
+        <v>94373</v>
+      </c>
+      <c r="F10" s="12">
+        <v>82958</v>
+      </c>
+      <c r="G10" s="12">
+        <v>84672</v>
+      </c>
+      <c r="H10" s="12">
+        <v>10041043</v>
+      </c>
+      <c r="I10" s="12">
+        <v>91833</v>
+      </c>
+      <c r="J10" s="12">
+        <v>58837</v>
+      </c>
+      <c r="K10" s="12">
+        <v>77432</v>
+      </c>
+      <c r="L10" s="12">
+        <v>63562</v>
+      </c>
+      <c r="M10" s="12">
+        <v>94962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12">
+        <v>73853</v>
+      </c>
+      <c r="C11" s="12">
+        <v>93602</v>
+      </c>
+      <c r="D11" s="12">
+        <v>101403</v>
+      </c>
+      <c r="E11" s="12">
+        <v>111950</v>
+      </c>
+      <c r="F11" s="12">
+        <v>64152</v>
+      </c>
+      <c r="G11" s="12">
+        <v>118210</v>
+      </c>
+      <c r="H11" s="12">
+        <v>97428</v>
+      </c>
+      <c r="I11" s="12">
+        <v>89312</v>
+      </c>
+      <c r="J11" s="12">
+        <v>111799</v>
+      </c>
+      <c r="K11" s="12">
+        <v>99002</v>
+      </c>
+      <c r="L11" s="12">
+        <v>77950</v>
+      </c>
+      <c r="M11" s="12">
+        <v>95781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>79893</v>
+      </c>
+      <c r="C12" s="12">
+        <v>101326</v>
+      </c>
+      <c r="D12" s="12">
+        <v>64816</v>
+      </c>
+      <c r="E12" s="12">
+        <v>97492</v>
+      </c>
+      <c r="F12" s="12">
+        <v>102987</v>
+      </c>
+      <c r="G12" s="12">
+        <v>87290</v>
+      </c>
+      <c r="H12" s="12">
+        <v>95059</v>
+      </c>
+      <c r="I12" s="12">
+        <v>77947</v>
+      </c>
+      <c r="J12" s="12">
+        <v>73099</v>
+      </c>
+      <c r="K12" s="12">
+        <v>109238</v>
+      </c>
+      <c r="L12" s="12">
+        <v>80148</v>
+      </c>
+      <c r="M12" s="12">
+        <v>80129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14">
-        <v>88493</v>
-      </c>
-      <c r="C5" s="14">
-        <v>108651</v>
-      </c>
-      <c r="D5" s="14">
-        <v>79580</v>
-      </c>
-      <c r="E5" s="14">
-        <v>68233</v>
-      </c>
-      <c r="F5" s="14">
-        <v>59800</v>
-      </c>
-      <c r="G5" s="14">
-        <v>105816</v>
-      </c>
-      <c r="H5" s="14">
-        <v>101138</v>
-      </c>
-      <c r="I5" s="14">
-        <v>108391</v>
-      </c>
-      <c r="J5" s="14">
-        <v>54315</v>
-      </c>
-      <c r="K5" s="14">
-        <v>117289</v>
-      </c>
-      <c r="L5" s="14">
-        <v>91558</v>
-      </c>
-      <c r="M5" s="14">
-        <v>122465</v>
-      </c>
-      <c r="N5" s="14">
-        <v>1105729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14">
-        <v>40206</v>
-      </c>
-      <c r="C6" s="14">
-        <v>39501</v>
-      </c>
-      <c r="D6" s="14">
-        <v>18500</v>
-      </c>
-      <c r="E6" s="14">
-        <v>27038</v>
-      </c>
-      <c r="F6" s="14">
-        <v>15748</v>
-      </c>
-      <c r="G6" s="14">
-        <v>14867</v>
-      </c>
-      <c r="H6" s="14">
-        <v>36485</v>
-      </c>
-      <c r="I6" s="14">
-        <v>17121</v>
-      </c>
-      <c r="J6" s="14">
-        <v>23144</v>
-      </c>
-      <c r="K6" s="14">
-        <v>33990</v>
-      </c>
-      <c r="L6" s="14">
-        <v>36598</v>
-      </c>
-      <c r="M6" s="14">
-        <v>49727</v>
-      </c>
-      <c r="N6" s="14">
-        <v>352925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14">
-        <v>30244</v>
-      </c>
-      <c r="C7" s="14">
-        <v>45392</v>
-      </c>
-      <c r="D7" s="14">
-        <v>44222</v>
-      </c>
-      <c r="E7" s="14">
-        <v>14297</v>
-      </c>
-      <c r="F7" s="14">
-        <v>32033</v>
-      </c>
-      <c r="G7" s="14">
-        <v>46790</v>
-      </c>
-      <c r="H7" s="14">
-        <v>24771</v>
-      </c>
-      <c r="I7" s="14">
-        <v>47805</v>
-      </c>
-      <c r="J7" s="14">
-        <v>14769</v>
-      </c>
-      <c r="K7" s="14">
-        <v>43918</v>
-      </c>
-      <c r="L7" s="14">
-        <v>16876</v>
-      </c>
-      <c r="M7" s="14">
-        <v>26254</v>
-      </c>
-      <c r="N7" s="14">
-        <v>387371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14">
-        <v>18043</v>
-      </c>
-      <c r="C8" s="14">
-        <v>23758</v>
-      </c>
-      <c r="D8" s="14">
-        <v>16858</v>
-      </c>
-      <c r="E8" s="14">
-        <v>26898</v>
-      </c>
-      <c r="F8" s="14">
-        <v>12019</v>
-      </c>
-      <c r="G8" s="14">
-        <v>44159</v>
-      </c>
-      <c r="H8" s="14">
-        <v>39882</v>
-      </c>
-      <c r="I8" s="14">
-        <v>43465</v>
-      </c>
-      <c r="J8" s="14">
-        <v>16402</v>
-      </c>
-      <c r="K8" s="14">
-        <v>39381</v>
-      </c>
-      <c r="L8" s="14">
-        <v>38084</v>
-      </c>
-      <c r="M8" s="14">
-        <v>46484</v>
-      </c>
-      <c r="N8" s="14">
-        <v>365433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14">
-        <v>116296</v>
-      </c>
-      <c r="C9" s="14">
-        <v>102573</v>
-      </c>
-      <c r="D9" s="14">
-        <v>85703</v>
-      </c>
-      <c r="E9" s="14">
-        <v>107285</v>
-      </c>
-      <c r="F9" s="14">
-        <v>84165</v>
-      </c>
-      <c r="G9" s="14">
-        <v>44740</v>
-      </c>
-      <c r="H9" s="14">
-        <v>102054</v>
-      </c>
-      <c r="I9" s="14">
-        <v>80515</v>
-      </c>
-      <c r="J9" s="14">
-        <v>106435</v>
-      </c>
-      <c r="K9" s="14">
-        <v>93067</v>
-      </c>
-      <c r="L9" s="14">
-        <v>93187</v>
-      </c>
-      <c r="M9" s="14">
-        <v>54120</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1070140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="14">
-        <v>29136</v>
-      </c>
-      <c r="C10" s="14">
-        <v>44970</v>
-      </c>
-      <c r="D10" s="14">
-        <v>25542</v>
-      </c>
-      <c r="E10" s="14">
-        <v>45836</v>
-      </c>
-      <c r="F10" s="14">
-        <v>28672</v>
-      </c>
-      <c r="G10" s="14">
-        <v>17077</v>
-      </c>
-      <c r="H10" s="14">
-        <v>35502</v>
-      </c>
-      <c r="I10" s="14">
-        <v>15527</v>
-      </c>
-      <c r="J10" s="14">
-        <v>42421</v>
-      </c>
-      <c r="K10" s="14">
-        <v>11638</v>
-      </c>
-      <c r="L10" s="14">
-        <v>11587</v>
-      </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14">
-        <v>307908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="14">
-        <v>42368</v>
-      </c>
-      <c r="C11" s="14">
-        <v>17394</v>
-      </c>
-      <c r="D11" s="14">
-        <v>47147</v>
-      </c>
-      <c r="E11" s="14">
-        <v>45249</v>
-      </c>
-      <c r="F11" s="14">
-        <v>27407</v>
-      </c>
-      <c r="G11" s="14">
-        <v>13600</v>
-      </c>
-      <c r="H11" s="14">
-        <v>23241</v>
-      </c>
-      <c r="I11" s="14">
-        <v>22589</v>
-      </c>
-      <c r="J11" s="14">
-        <v>42745</v>
-      </c>
-      <c r="K11" s="14">
-        <v>39128</v>
-      </c>
-      <c r="L11" s="14">
-        <v>30992</v>
-      </c>
-      <c r="M11" s="14">
-        <v>22093</v>
-      </c>
-      <c r="N11" s="14">
-        <v>373953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14">
-        <v>44792</v>
-      </c>
-      <c r="C12" s="14">
-        <v>40209</v>
-      </c>
-      <c r="D12" s="14">
-        <v>13014</v>
-      </c>
-      <c r="E12" s="14">
-        <v>16200</v>
-      </c>
-      <c r="F12" s="14">
-        <v>28086</v>
-      </c>
-      <c r="G12" s="14">
-        <v>14063</v>
-      </c>
-      <c r="H12" s="14">
-        <v>43311</v>
-      </c>
-      <c r="I12" s="14">
-        <v>42399</v>
-      </c>
-      <c r="J12" s="14">
-        <v>21269</v>
-      </c>
-      <c r="K12" s="14">
-        <v>42301</v>
-      </c>
-      <c r="L12" s="14">
-        <v>50608</v>
-      </c>
-      <c r="M12" s="14">
-        <v>32027</v>
-      </c>
-      <c r="N12" s="14">
-        <v>388279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="14">
-        <v>74338</v>
-      </c>
-      <c r="C13" s="14">
-        <v>107529</v>
-      </c>
-      <c r="D13" s="14">
-        <v>76588</v>
-      </c>
-      <c r="E13" s="14">
-        <v>94373</v>
-      </c>
-      <c r="F13" s="14">
-        <v>82958</v>
-      </c>
-      <c r="G13" s="14">
-        <v>84672</v>
-      </c>
-      <c r="H13" s="14">
-        <v>10041043</v>
-      </c>
-      <c r="I13" s="14">
-        <v>91833</v>
-      </c>
-      <c r="J13" s="14">
-        <v>58837</v>
-      </c>
-      <c r="K13" s="14">
-        <v>77432</v>
-      </c>
-      <c r="L13" s="14">
-        <v>63562</v>
-      </c>
-      <c r="M13" s="14">
-        <v>94962</v>
-      </c>
-      <c r="N13" s="14">
-        <v>10948127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14">
-        <v>18937</v>
-      </c>
-      <c r="C14" s="14">
-        <v>42525</v>
-      </c>
-      <c r="D14" s="14">
-        <v>24887</v>
-      </c>
-      <c r="E14" s="14">
-        <v>21481</v>
-      </c>
-      <c r="F14" s="14">
-        <v>27742</v>
-      </c>
-      <c r="G14" s="14">
-        <v>19748</v>
-      </c>
-      <c r="H14" s="14">
-        <v>25382</v>
-      </c>
-      <c r="I14" s="14">
-        <v>46485</v>
-      </c>
-      <c r="J14" s="14">
-        <v>19983</v>
-      </c>
-      <c r="K14" s="14">
-        <v>31815</v>
-      </c>
-      <c r="L14" s="14">
-        <v>25838</v>
-      </c>
-      <c r="M14" s="14">
-        <v>33892</v>
-      </c>
-      <c r="N14" s="14">
-        <v>338715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14">
-        <v>37484</v>
-      </c>
-      <c r="C15" s="14">
-        <v>34967</v>
-      </c>
-      <c r="D15" s="14">
-        <v>36639</v>
-      </c>
-      <c r="E15" s="14">
-        <v>37245</v>
-      </c>
-      <c r="F15" s="14">
-        <v>40981</v>
-      </c>
-      <c r="G15" s="14">
-        <v>15147</v>
-      </c>
-      <c r="H15" s="14">
-        <v>15661</v>
-      </c>
-      <c r="I15" s="14">
-        <v>22691</v>
-      </c>
-      <c r="J15" s="14">
-        <v>25351</v>
-      </c>
-      <c r="K15" s="14">
-        <v>19303</v>
-      </c>
-      <c r="L15" s="14">
-        <v>17902</v>
-      </c>
-      <c r="M15" s="14">
-        <v>30657</v>
-      </c>
-      <c r="N15" s="14">
-        <v>334028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14">
-        <v>17917</v>
-      </c>
-      <c r="C16" s="14">
-        <v>30037</v>
-      </c>
-      <c r="D16" s="14">
-        <v>15062</v>
-      </c>
-      <c r="E16" s="14">
-        <v>35647</v>
-      </c>
-      <c r="F16" s="14">
-        <v>14235</v>
-      </c>
-      <c r="G16" s="14">
-        <v>49777</v>
-      </c>
-      <c r="H16" s="14">
-        <v>10000000</v>
-      </c>
-      <c r="I16" s="14">
-        <v>22657</v>
-      </c>
-      <c r="J16" s="14">
-        <v>13503</v>
-      </c>
-      <c r="K16" s="14">
-        <v>26314</v>
-      </c>
-      <c r="L16" s="14">
-        <v>19822</v>
-      </c>
-      <c r="M16" s="14">
-        <v>30413</v>
-      </c>
-      <c r="N16" s="14">
-        <v>10275384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14">
-        <v>73853</v>
-      </c>
-      <c r="C17" s="14">
-        <v>93602</v>
-      </c>
-      <c r="D17" s="14">
-        <v>101403</v>
-      </c>
-      <c r="E17" s="14">
-        <v>111950</v>
-      </c>
-      <c r="F17" s="14">
-        <v>64152</v>
-      </c>
-      <c r="G17" s="14">
-        <v>118210</v>
-      </c>
-      <c r="H17" s="14">
-        <v>97428</v>
-      </c>
-      <c r="I17" s="14">
-        <v>89312</v>
-      </c>
-      <c r="J17" s="14">
-        <v>111799</v>
-      </c>
-      <c r="K17" s="14">
-        <v>99002</v>
-      </c>
-      <c r="L17" s="14">
-        <v>77950</v>
-      </c>
-      <c r="M17" s="14">
-        <v>95781</v>
-      </c>
-      <c r="N17" s="14">
-        <v>1134442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14">
-        <v>18575</v>
-      </c>
-      <c r="C18" s="14">
-        <v>40518</v>
-      </c>
-      <c r="D18" s="14">
-        <v>46422</v>
-      </c>
-      <c r="E18" s="14">
-        <v>30054</v>
-      </c>
-      <c r="F18" s="14">
-        <v>19440</v>
-      </c>
-      <c r="G18" s="14">
-        <v>49096</v>
-      </c>
-      <c r="H18" s="14">
-        <v>32592</v>
-      </c>
-      <c r="I18" s="14">
-        <v>12547</v>
-      </c>
-      <c r="J18" s="14">
-        <v>46469</v>
-      </c>
-      <c r="K18" s="14">
-        <v>24444</v>
-      </c>
-      <c r="L18" s="14">
-        <v>12570</v>
-      </c>
-      <c r="M18" s="14">
-        <v>33178</v>
-      </c>
-      <c r="N18" s="14">
-        <v>365905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="14">
-        <v>37727</v>
-      </c>
-      <c r="C19" s="14">
-        <v>41749</v>
-      </c>
-      <c r="D19" s="14">
-        <v>23082</v>
-      </c>
-      <c r="E19" s="14">
-        <v>36332</v>
-      </c>
-      <c r="F19" s="14">
-        <v>32526</v>
-      </c>
-      <c r="G19" s="14">
-        <v>40880</v>
-      </c>
-      <c r="H19" s="14">
-        <v>44270</v>
-      </c>
-      <c r="I19" s="14">
-        <v>43790</v>
-      </c>
-      <c r="J19" s="14">
-        <v>26102</v>
-      </c>
-      <c r="K19" s="14">
-        <v>49446</v>
-      </c>
-      <c r="L19" s="14">
-        <v>15471</v>
-      </c>
-      <c r="M19" s="14">
-        <v>41340</v>
-      </c>
-      <c r="N19" s="14">
-        <v>432715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14">
-        <v>17551</v>
-      </c>
-      <c r="C20" s="14">
-        <v>11335</v>
-      </c>
-      <c r="D20" s="14">
-        <v>31899</v>
-      </c>
-      <c r="E20" s="14">
-        <v>45564</v>
-      </c>
-      <c r="F20" s="14">
-        <v>12186</v>
-      </c>
-      <c r="G20" s="14">
-        <v>28234</v>
-      </c>
-      <c r="H20" s="14">
-        <v>20566</v>
-      </c>
-      <c r="I20" s="14">
-        <v>32975</v>
-      </c>
-      <c r="J20" s="14">
-        <v>39228</v>
-      </c>
-      <c r="K20" s="14">
-        <v>25112</v>
-      </c>
-      <c r="L20" s="14">
-        <v>49909</v>
-      </c>
-      <c r="M20" s="14">
-        <v>21263</v>
-      </c>
-      <c r="N20" s="14">
-        <v>335822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="14">
-        <v>79893</v>
-      </c>
-      <c r="C21" s="14">
-        <v>101326</v>
-      </c>
-      <c r="D21" s="14">
-        <v>64816</v>
-      </c>
-      <c r="E21" s="14">
-        <v>97492</v>
-      </c>
-      <c r="F21" s="14">
-        <v>102987</v>
-      </c>
-      <c r="G21" s="14">
-        <v>87290</v>
-      </c>
-      <c r="H21" s="14">
-        <v>95059</v>
-      </c>
-      <c r="I21" s="14">
-        <v>77947</v>
-      </c>
-      <c r="J21" s="14">
-        <v>73099</v>
-      </c>
-      <c r="K21" s="14">
-        <v>109238</v>
-      </c>
-      <c r="L21" s="14">
-        <v>80148</v>
-      </c>
-      <c r="M21" s="14">
-        <v>80129</v>
-      </c>
-      <c r="N21" s="14">
-        <v>1049424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="14">
-        <v>42098</v>
-      </c>
-      <c r="C22" s="14">
-        <v>27857</v>
-      </c>
-      <c r="D22" s="14">
-        <v>24047</v>
-      </c>
-      <c r="E22" s="14">
-        <v>43832</v>
-      </c>
-      <c r="F22" s="14">
-        <v>42944</v>
-      </c>
-      <c r="G22" s="14">
-        <v>43316</v>
-      </c>
-      <c r="H22" s="14">
-        <v>27302</v>
-      </c>
-      <c r="I22" s="14">
-        <v>16033</v>
-      </c>
-      <c r="J22" s="14">
-        <v>19165</v>
-      </c>
-      <c r="K22" s="14">
-        <v>45019</v>
-      </c>
-      <c r="L22" s="14">
-        <v>15648</v>
-      </c>
-      <c r="M22" s="14">
-        <v>33703</v>
-      </c>
-      <c r="N22" s="14">
-        <v>380964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="14">
-        <v>12782</v>
-      </c>
-      <c r="C23" s="14">
-        <v>49875</v>
-      </c>
-      <c r="D23" s="14">
-        <v>24076</v>
-      </c>
-      <c r="E23" s="14">
-        <v>28208</v>
-      </c>
-      <c r="F23" s="14">
-        <v>30936</v>
-      </c>
-      <c r="G23" s="14">
-        <v>18594</v>
-      </c>
-      <c r="H23" s="14">
-        <v>50390</v>
-      </c>
-      <c r="I23" s="14">
-        <v>48147</v>
-      </c>
-      <c r="J23" s="14">
-        <v>11704</v>
-      </c>
-      <c r="K23" s="14">
-        <v>46139</v>
-      </c>
-      <c r="L23" s="14">
-        <v>50140</v>
-      </c>
-      <c r="M23" s="14">
-        <v>10740</v>
-      </c>
-      <c r="N23" s="14">
-        <v>381731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="14">
-        <v>25013</v>
-      </c>
-      <c r="C24" s="14">
-        <v>23594</v>
-      </c>
-      <c r="D24" s="14">
-        <v>16693</v>
-      </c>
-      <c r="E24" s="14">
-        <v>25452</v>
-      </c>
-      <c r="F24" s="14">
-        <v>29107</v>
-      </c>
-      <c r="G24" s="14">
-        <v>25380</v>
-      </c>
-      <c r="H24" s="14">
-        <v>17367</v>
-      </c>
-      <c r="I24" s="14">
-        <v>13767</v>
-      </c>
-      <c r="J24" s="14">
-        <v>42230</v>
-      </c>
-      <c r="K24" s="14">
-        <v>18080</v>
-      </c>
-      <c r="L24" s="14">
-        <v>14360</v>
-      </c>
-      <c r="M24" s="14">
-        <v>35686</v>
-      </c>
-      <c r="N24" s="14">
-        <v>286729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="14">
+      <c r="B13" s="12">
         <v>432873</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C13" s="12">
         <v>513681</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D13" s="12">
         <v>408090</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E13" s="12">
         <v>479333</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F13" s="12">
         <v>394062</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G13" s="12">
         <v>440728</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H13" s="12">
         <v>10436722</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I13" s="12">
         <v>447998</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J13" s="12">
         <v>404485</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K13" s="12">
         <v>496028</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L13" s="12">
         <v>406405</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M13" s="12">
         <v>447457</v>
-      </c>
-      <c r="N25" s="14">
-        <v>15307862</v>
       </c>
     </row>
   </sheetData>
@@ -6090,7 +8381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6108,7 +8399,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6120,7 +8411,7 @@
       <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6131,7 +8422,7 @@
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -6146,10 +8437,10 @@
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6164,10 +8455,10 @@
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -6182,10 +8473,10 @@
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -6200,10 +8491,10 @@
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -6221,7 +8512,7 @@
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -6236,10 +8527,10 @@
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -6254,10 +8545,10 @@
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -6272,10 +8563,10 @@
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -6290,10 +8581,10 @@
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -6311,7 +8602,7 @@
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -6326,10 +8617,10 @@
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -6344,10 +8635,10 @@
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -6362,10 +8653,10 @@
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -6380,10 +8671,10 @@
       <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -6401,7 +8692,7 @@
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -6416,10 +8707,10 @@
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -6434,10 +8725,10 @@
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -6451,10 +8742,10 @@
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -6468,10 +8759,10 @@
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -6488,7 +8779,7 @@
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -6502,10 +8793,10 @@
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -6519,10 +8810,10 @@
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -6536,10 +8827,10 @@
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -6553,10 +8844,10 @@
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -6573,7 +8864,7 @@
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -6587,10 +8878,10 @@
       <c r="A28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -6604,10 +8895,10 @@
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -6621,10 +8912,10 @@
       <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -6638,10 +8929,10 @@
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -6658,7 +8949,7 @@
       <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -6672,10 +8963,10 @@
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -6689,10 +8980,10 @@
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -6706,10 +8997,10 @@
       <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -6723,10 +9014,10 @@
       <c r="A36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -6743,7 +9034,7 @@
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -6757,10 +9048,10 @@
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -6774,10 +9065,10 @@
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -6791,10 +9082,10 @@
       <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -6808,10 +9099,10 @@
       <c r="A41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -6828,7 +9119,7 @@
       <c r="B42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -6842,10 +9133,10 @@
       <c r="A43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -6859,10 +9150,10 @@
       <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -6876,10 +9167,10 @@
       <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -6893,10 +9184,10 @@
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -6913,7 +9204,7 @@
       <c r="B47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -6927,10 +9218,10 @@
       <c r="A48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -6944,10 +9235,10 @@
       <c r="A49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -6961,10 +9252,10 @@
       <c r="A50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -6978,10 +9269,10 @@
       <c r="A51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -6998,7 +9289,7 @@
       <c r="B52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -7012,10 +9303,10 @@
       <c r="A53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -7029,10 +9320,10 @@
       <c r="A54" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -7046,10 +9337,10 @@
       <c r="A55" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -7063,10 +9354,10 @@
       <c r="A56" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -7083,7 +9374,7 @@
       <c r="B57" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -7097,10 +9388,10 @@
       <c r="A58" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -7114,10 +9405,10 @@
       <c r="A59" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -7131,10 +9422,10 @@
       <c r="A60" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -7148,10 +9439,10 @@
       <c r="A61" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -7168,7 +9459,7 @@
       <c r="B62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -7182,10 +9473,10 @@
       <c r="A63" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -7199,10 +9490,10 @@
       <c r="A64" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -7216,10 +9507,10 @@
       <c r="A65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="5" t="s">
@@ -7233,10 +9524,10 @@
       <c r="A66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -7253,7 +9544,7 @@
       <c r="B67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -7267,10 +9558,10 @@
       <c r="A68" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -7284,10 +9575,10 @@
       <c r="A69" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -7301,10 +9592,10 @@
       <c r="A70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -7318,10 +9609,10 @@
       <c r="A71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -7338,7 +9629,7 @@
       <c r="B72" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -7352,10 +9643,10 @@
       <c r="A73" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -7369,10 +9660,10 @@
       <c r="A74" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -7386,10 +9677,10 @@
       <c r="A75" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -7403,10 +9694,10 @@
       <c r="A76" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -7423,7 +9714,7 @@
       <c r="B77" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -7437,10 +9728,10 @@
       <c r="A78" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -7454,10 +9745,10 @@
       <c r="A79" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -7471,10 +9762,10 @@
       <c r="A80" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -7488,10 +9779,10 @@
       <c r="A81" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -7508,7 +9799,7 @@
       <c r="B82" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -7522,10 +9813,10 @@
       <c r="A83" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -7539,10 +9830,10 @@
       <c r="A84" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -7556,10 +9847,10 @@
       <c r="A85" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -7573,10 +9864,10 @@
       <c r="A86" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -7593,7 +9884,7 @@
       <c r="B87" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -7607,10 +9898,10 @@
       <c r="A88" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -7624,10 +9915,10 @@
       <c r="A89" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -7641,10 +9932,10 @@
       <c r="A90" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -7658,10 +9949,10 @@
       <c r="A91" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -7678,7 +9969,7 @@
       <c r="B92" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -7692,10 +9983,10 @@
       <c r="A93" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -7709,10 +10000,10 @@
       <c r="A94" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -7726,10 +10017,10 @@
       <c r="A95" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -7743,10 +10034,10 @@
       <c r="A96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -7763,7 +10054,7 @@
       <c r="B97" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -7777,10 +10068,10 @@
       <c r="A98" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -7794,10 +10085,10 @@
       <c r="A99" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -7811,10 +10102,10 @@
       <c r="A100" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -7828,10 +10119,10 @@
       <c r="A101" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -7848,7 +10139,7 @@
       <c r="B102" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -7862,10 +10153,10 @@
       <c r="A103" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -7879,10 +10170,10 @@
       <c r="A104" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -7896,10 +10187,10 @@
       <c r="A105" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -7913,10 +10204,10 @@
       <c r="A106" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -7933,7 +10224,7 @@
       <c r="B107" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -7947,10 +10238,10 @@
       <c r="A108" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -7964,10 +10255,10 @@
       <c r="A109" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -7981,10 +10272,10 @@
       <c r="A110" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -7998,10 +10289,10 @@
       <c r="A111" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -8018,7 +10309,7 @@
       <c r="B112" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -8032,10 +10323,10 @@
       <c r="A113" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -8049,10 +10340,10 @@
       <c r="A114" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -8066,10 +10357,10 @@
       <c r="A115" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -8083,10 +10374,10 @@
       <c r="A116" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -8103,7 +10394,7 @@
       <c r="B117" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -8117,10 +10408,10 @@
       <c r="A118" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -8134,10 +10425,10 @@
       <c r="A119" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -8151,10 +10442,10 @@
       <c r="A120" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
@@ -8168,10 +10459,10 @@
       <c r="A121" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="5" t="s">
@@ -8188,7 +10479,7 @@
       <c r="B122" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="5" t="s">
@@ -8202,10 +10493,10 @@
       <c r="A123" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -8219,10 +10510,10 @@
       <c r="A124" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -8236,10 +10527,10 @@
       <c r="A125" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -8253,10 +10544,10 @@
       <c r="A126" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -8273,7 +10564,7 @@
       <c r="B127" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -8287,10 +10578,10 @@
       <c r="A128" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="5" t="s">
@@ -8304,10 +10595,10 @@
       <c r="A129" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="5" t="s">
@@ -8321,10 +10612,10 @@
       <c r="A130" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="5" t="s">
@@ -8338,10 +10629,10 @@
       <c r="A131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="5" t="s">
@@ -8358,7 +10649,7 @@
       <c r="B132" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="5" t="s">
@@ -8372,10 +10663,10 @@
       <c r="A133" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="5" t="s">
@@ -8389,10 +10680,10 @@
       <c r="A134" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="5" t="s">
@@ -8406,10 +10697,10 @@
       <c r="A135" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="5" t="s">
@@ -8423,10 +10714,10 @@
       <c r="A136" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -8443,7 +10734,7 @@
       <c r="B137" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -8457,10 +10748,10 @@
       <c r="A138" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -8474,10 +10765,10 @@
       <c r="A139" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="5" t="s">
@@ -8491,10 +10782,10 @@
       <c r="A140" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="5" t="s">
@@ -8508,10 +10799,10 @@
       <c r="A141" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -8528,7 +10819,7 @@
       <c r="B142" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -8542,10 +10833,10 @@
       <c r="A143" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -8559,10 +10850,10 @@
       <c r="A144" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="5" t="s">
@@ -8576,10 +10867,10 @@
       <c r="A145" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="5" t="s">
@@ -8593,10 +10884,10 @@
       <c r="A146" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="5" t="s">
@@ -8613,7 +10904,7 @@
       <c r="B147" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D147" s="5" t="s">
@@ -8627,10 +10918,10 @@
       <c r="A148" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -8644,10 +10935,10 @@
       <c r="A149" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -8661,10 +10952,10 @@
       <c r="A150" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -8678,10 +10969,10 @@
       <c r="A151" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -8698,7 +10989,7 @@
       <c r="B152" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -8712,10 +11003,10 @@
       <c r="A153" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -8729,10 +11020,10 @@
       <c r="A154" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="5" t="s">
@@ -8746,10 +11037,10 @@
       <c r="A155" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -8763,10 +11054,10 @@
       <c r="A156" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -8783,7 +11074,7 @@
       <c r="B157" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="5" t="s">
@@ -8797,10 +11088,10 @@
       <c r="A158" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -8814,10 +11105,10 @@
       <c r="A159" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="5" t="s">
@@ -8831,10 +11122,10 @@
       <c r="A160" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="5" t="s">
@@ -8848,10 +11139,10 @@
       <c r="A161" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="5" t="s">
@@ -8868,7 +11159,7 @@
       <c r="B162" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -8882,10 +11173,10 @@
       <c r="A163" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D163" s="5" t="s">
@@ -8899,10 +11190,10 @@
       <c r="A164" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D164" s="5" t="s">
@@ -8916,10 +11207,10 @@
       <c r="A165" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -8933,10 +11224,10 @@
       <c r="A166" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -8953,7 +11244,7 @@
       <c r="B167" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="5" t="s">
@@ -8967,10 +11258,10 @@
       <c r="A168" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="5" t="s">
@@ -8984,10 +11275,10 @@
       <c r="A169" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="5" t="s">
@@ -9001,10 +11292,10 @@
       <c r="A170" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -9018,10 +11309,10 @@
       <c r="A171" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="5" t="s">
@@ -9038,7 +11329,7 @@
       <c r="B172" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="5" t="s">
@@ -9052,10 +11343,10 @@
       <c r="A173" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -9069,10 +11360,10 @@
       <c r="A174" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -9086,10 +11377,10 @@
       <c r="A175" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -9103,10 +11394,10 @@
       <c r="A176" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -9123,7 +11414,7 @@
       <c r="B177" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="5" t="s">
@@ -9137,10 +11428,10 @@
       <c r="A178" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="5" t="s">
@@ -9154,10 +11445,10 @@
       <c r="A179" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="5" t="s">
@@ -9171,10 +11462,10 @@
       <c r="A180" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D180" s="5" t="s">
@@ -9189,7 +11480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9287,7 +11578,7 @@
       <c r="M2" s="4">
         <v>73408.5</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
